--- a/data/trans_orig/P16B06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8325955-23AF-487C-9BBC-7E27EF635B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0C34C02-730F-4BC5-9F20-9D3AA70AF278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4BF99B0C-4649-4B90-8453-605AD37159DD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59486CC7-1423-480A-9380-6A8C619CBD0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -91,7 +91,7 @@
     <t>77,57%</t>
   </si>
   <si>
-    <t>38,7%</t>
+    <t>35,91%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,7 +109,7 @@
     <t>22,43%</t>
   </si>
   <si>
-    <t>61,3%</t>
+    <t>64,09%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -121,13 +121,13 @@
     <t>96,88%</t>
   </si>
   <si>
-    <t>84,13%</t>
+    <t>83,62%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>87,68%</t>
+    <t>88,86%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -136,13 +136,13 @@
     <t>3,12%</t>
   </si>
   <si>
-    <t>15,87%</t>
+    <t>16,38%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>12,32%</t>
+    <t>11,14%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -178,13 +178,13 @@
     <t>90,49%</t>
   </si>
   <si>
-    <t>54,65%</t>
+    <t>61,07%</t>
   </si>
   <si>
     <t>87,47%</t>
   </si>
   <si>
-    <t>64,28%</t>
+    <t>64,51%</t>
   </si>
   <si>
     <t>20,37%</t>
@@ -196,13 +196,13 @@
     <t>9,51%</t>
   </si>
   <si>
-    <t>45,35%</t>
+    <t>38,93%</t>
   </si>
   <si>
     <t>12,53%</t>
   </si>
   <si>
-    <t>35,72%</t>
+    <t>35,49%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -214,13 +214,13 @@
     <t>83,24%</t>
   </si>
   <si>
-    <t>55,67%</t>
+    <t>55,29%</t>
   </si>
   <si>
     <t>87,91%</t>
   </si>
   <si>
-    <t>63,05%</t>
+    <t>63,85%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -229,13 +229,13 @@
     <t>16,76%</t>
   </si>
   <si>
-    <t>44,33%</t>
+    <t>44,71%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>36,95%</t>
+    <t>36,15%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -253,37 +253,37 @@
     <t>92,35%</t>
   </si>
   <si>
-    <t>64,54%</t>
+    <t>67,73%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>82,88%</t>
+    <t>81,93%</t>
   </si>
   <si>
     <t>95,07%</t>
   </si>
   <si>
-    <t>84,49%</t>
+    <t>83,47%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>35,46%</t>
+    <t>32,27%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>17,12%</t>
+    <t>18,07%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>15,51%</t>
+    <t>16,53%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -292,97 +292,97 @@
     <t>93,52%</t>
   </si>
   <si>
-    <t>78,96%</t>
+    <t>78,66%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>85,85%</t>
+    <t>84,47%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>21,04%</t>
+    <t>21,34%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>14,15%</t>
+    <t>15,53%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
   <si>
     <t>95,05%</t>
   </si>
   <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -415,85 +415,85 @@
     <t>81,32%</t>
   </si>
   <si>
-    <t>21,3%</t>
+    <t>21,74%</t>
   </si>
   <si>
     <t>92,9%</t>
   </si>
   <si>
-    <t>69,18%</t>
+    <t>63,52%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>78,7%</t>
+    <t>78,26%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>30,82%</t>
+    <t>36,48%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>61,4%</t>
+    <t>69,12%</t>
   </si>
   <si>
     <t>97,76%</t>
   </si>
   <si>
-    <t>90,83%</t>
+    <t>90,44%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>88,68%</t>
+    <t>89,59%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>38,6%</t>
+    <t>30,88%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>9,17%</t>
+    <t>9,56%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>11,32%</t>
+    <t>10,41%</t>
   </si>
   <si>
     <t>92,96%</t>
   </si>
   <si>
-    <t>76,11%</t>
+    <t>76,22%</t>
   </si>
   <si>
     <t>93,83%</t>
   </si>
   <si>
-    <t>78,04%</t>
+    <t>80,78%</t>
   </si>
   <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>23,89%</t>
+    <t>23,78%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>21,96%</t>
+    <t>19,22%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -532,13 +532,13 @@
     <t>98,48%</t>
   </si>
   <si>
-    <t>91,23%</t>
+    <t>92,12%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>95,37%</t>
+    <t>94,34%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -547,40 +547,43 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>8,77%</t>
+    <t>7,88%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>4,63%</t>
+    <t>5,66%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>91,44%</t>
+    <t>91,78%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
+    <t>94,65%</t>
+  </si>
+  <si>
     <t>99,53%</t>
   </si>
   <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>8,56%</t>
+    <t>8,22%</t>
   </si>
   <si>
     <t>2,1%</t>
@@ -589,13 +592,16 @@
     <t>0,47%</t>
   </si>
   <si>
+    <t>5,35%</t>
+  </si>
+  <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>Porcentaje de pastillas para dormir recetados en 2015 (Tasa respuesta: 4,87%)</t>
@@ -604,31 +610,31 @@
     <t>96,28%</t>
   </si>
   <si>
-    <t>79,42%</t>
+    <t>80,11%</t>
   </si>
   <si>
     <t>97,0%</t>
   </si>
   <si>
-    <t>84,25%</t>
+    <t>84,15%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>20,58%</t>
+    <t>19,89%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>15,75%</t>
+    <t>15,85%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>61,72%</t>
+    <t>67,0%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -637,13 +643,13 @@
     <t>97,95%</t>
   </si>
   <si>
-    <t>90,61%</t>
+    <t>86,89%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>38,28%</t>
+    <t>33,0%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -652,7 +658,7 @@
     <t>2,05%</t>
   </si>
   <si>
-    <t>9,39%</t>
+    <t>13,11%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -670,25 +676,25 @@
     <t>97,45%</t>
   </si>
   <si>
-    <t>87,0%</t>
+    <t>88,23%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>89,73%</t>
+    <t>89,64%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>13,0%</t>
+    <t>11,77%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>10,27%</t>
+    <t>10,36%</t>
   </si>
   <si>
     <t>90,51%</t>
@@ -706,151 +712,145 @@
     <t>82,35%</t>
   </si>
   <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
   </si>
   <si>
     <t>96,27%</t>
   </si>
   <si>
-    <t>81,6%</t>
+    <t>81,03%</t>
   </si>
   <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>88,32%</t>
+    <t>89,12%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>90,97%</t>
+    <t>91,07%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>18,4%</t>
+    <t>18,97%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>11,68%</t>
+    <t>10,88%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>9,03%</t>
+    <t>8,93%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>82,27%</t>
+    <t>82,98%</t>
   </si>
   <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>84,74%</t>
+    <t>86,8%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>17,73%</t>
+    <t>17,02%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>15,26%</t>
+    <t>13,2%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>92,45%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>7,55%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF694EDF-BDB1-4725-BFD4-E68ECA394B1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC15280-A50D-42D1-99DB-A179B7C41EAC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2793,7 +2793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D05CFA-6AEF-4CF0-B6F8-237A450F80B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209CB1BA-ECFA-41B3-8358-20ED7BA77C4C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4157,10 +4157,10 @@
         <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>257</v>
@@ -4169,13 +4169,13 @@
         <v>283597</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4190,13 @@
         <v>1779</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -4205,13 +4205,13 @@
         <v>4657</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -4220,13 +4220,13 @@
         <v>6437</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BA8193-960A-4D13-8E9D-FCC53C97D272}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F528E8A1-D927-4ECA-A350-C85714D7CDD6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4323,7 +4323,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4445,10 +4445,10 @@
         <v>24378</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4460,10 +4460,10 @@
         <v>30374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4496,13 +4496,13 @@
         <v>941</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4511,13 +4511,13 @@
         <v>941</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,10 +4585,10 @@
         <v>12479</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -4603,7 +4603,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4615,10 +4615,10 @@
         <v>48526</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4636,13 +4636,13 @@
         <v>1017</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4666,13 +4666,13 @@
         <v>1016</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,7 +4758,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4773,7 +4773,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -4812,7 +4812,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4827,7 +4827,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,10 +4910,10 @@
         <v>36037</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4925,10 +4925,10 @@
         <v>44767</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4961,13 +4961,13 @@
         <v>942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4976,13 +4976,13 @@
         <v>942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,7 +5068,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -5083,7 +5083,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -5122,7 +5122,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,10 +5205,10 @@
         <v>8441</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -5220,13 +5220,13 @@
         <v>24953</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -5235,13 +5235,13 @@
         <v>33394</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5256,13 @@
         <v>1809</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -5271,13 +5271,13 @@
         <v>5347</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -5286,13 +5286,13 @@
         <v>7156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,10 +5360,10 @@
         <v>29070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -5375,10 +5375,10 @@
         <v>55343</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5390,10 +5390,10 @@
         <v>84413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5411,13 +5411,13 @@
         <v>1125</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5426,13 +5426,13 @@
         <v>1101</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5441,13 +5441,13 @@
         <v>2226</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,10 +5530,10 @@
         <v>41838</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -5545,10 +5545,10 @@
         <v>50411</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5581,13 +5581,13 @@
         <v>2238</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5596,13 +5596,13 @@
         <v>2238</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5670,13 @@
         <v>83010</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H28" s="7">
         <v>227</v>
@@ -5685,13 +5685,13 @@
         <v>253306</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="M28" s="7">
         <v>306</v>
@@ -5700,13 +5700,13 @@
         <v>336315</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5721,13 @@
         <v>3950</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -5736,10 +5736,10 @@
         <v>10569</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>267</v>

--- a/data/trans_orig/P16B06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0C34C02-730F-4BC5-9F20-9D3AA70AF278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4B5633F-AF20-408B-8EDE-1355D0DBCA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59486CC7-1423-480A-9380-6A8C619CBD0C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D750C411-B2E9-4986-9D9F-27299F93CF71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="269">
   <si>
     <t>Porcentaje de pastillas para dormir recetados en 2007 (Tasa respuesta: 3,12%)</t>
   </si>
@@ -91,7 +91,7 @@
     <t>77,57%</t>
   </si>
   <si>
-    <t>35,91%</t>
+    <t>36,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,7 +109,7 @@
     <t>22,43%</t>
   </si>
   <si>
-    <t>64,09%</t>
+    <t>63,83%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -121,13 +121,13 @@
     <t>96,88%</t>
   </si>
   <si>
-    <t>83,62%</t>
+    <t>84,62%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>88,86%</t>
+    <t>86,7%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -136,13 +136,13 @@
     <t>3,12%</t>
   </si>
   <si>
-    <t>16,38%</t>
+    <t>15,38%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>11,14%</t>
+    <t>13,3%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -178,13 +178,13 @@
     <t>90,49%</t>
   </si>
   <si>
-    <t>61,07%</t>
+    <t>61,02%</t>
   </si>
   <si>
     <t>87,47%</t>
   </si>
   <si>
-    <t>64,51%</t>
+    <t>61,06%</t>
   </si>
   <si>
     <t>20,37%</t>
@@ -196,13 +196,13 @@
     <t>9,51%</t>
   </si>
   <si>
-    <t>38,93%</t>
+    <t>38,98%</t>
   </si>
   <si>
     <t>12,53%</t>
   </si>
   <si>
-    <t>35,49%</t>
+    <t>38,94%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -214,13 +214,13 @@
     <t>83,24%</t>
   </si>
   <si>
-    <t>55,29%</t>
+    <t>48,3%</t>
   </si>
   <si>
     <t>87,91%</t>
   </si>
   <si>
-    <t>63,85%</t>
+    <t>68,14%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -229,13 +229,13 @@
     <t>16,76%</t>
   </si>
   <si>
-    <t>44,71%</t>
+    <t>51,7%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>36,15%</t>
+    <t>31,86%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -253,136 +253,130 @@
     <t>92,35%</t>
   </si>
   <si>
-    <t>67,73%</t>
+    <t>67,83%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>81,93%</t>
+    <t>85,17%</t>
   </si>
   <si>
     <t>95,07%</t>
   </si>
   <si>
-    <t>83,47%</t>
-  </si>
-  <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>32,27%</t>
+    <t>32,17%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>18,07%</t>
+    <t>14,83%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>78,66%</t>
+    <t>77,63%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>84,47%</t>
+    <t>83,45%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>21,34%</t>
+    <t>22,37%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>15,53%</t>
+    <t>16,55%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>95,05%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -415,85 +409,85 @@
     <t>81,32%</t>
   </si>
   <si>
-    <t>21,74%</t>
+    <t>21,64%</t>
   </si>
   <si>
     <t>92,9%</t>
   </si>
   <si>
-    <t>63,52%</t>
+    <t>70,64%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>78,26%</t>
+    <t>78,36%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>36,48%</t>
+    <t>29,36%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>69,12%</t>
+    <t>64,29%</t>
   </si>
   <si>
     <t>97,76%</t>
   </si>
   <si>
-    <t>90,44%</t>
+    <t>85,42%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>89,59%</t>
+    <t>88,69%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>30,88%</t>
+    <t>35,71%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>9,56%</t>
+    <t>14,58%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>10,41%</t>
+    <t>11,31%</t>
   </si>
   <si>
     <t>92,96%</t>
   </si>
   <si>
-    <t>76,22%</t>
+    <t>78,0%</t>
   </si>
   <si>
     <t>93,83%</t>
   </si>
   <si>
-    <t>80,78%</t>
+    <t>78,75%</t>
   </si>
   <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>23,78%</t>
+    <t>22,0%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>19,22%</t>
+    <t>21,25%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -532,13 +526,13 @@
     <t>98,48%</t>
   </si>
   <si>
-    <t>92,12%</t>
+    <t>91,81%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>94,34%</t>
+    <t>94,45%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -547,25 +541,25 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>7,88%</t>
+    <t>8,19%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>5,66%</t>
+    <t>5,55%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>91,78%</t>
+    <t>90,81%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>94,65%</t>
+    <t>94,77%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -574,16 +568,16 @@
     <t>97,78%</t>
   </si>
   <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>8,22%</t>
+    <t>9,19%</t>
   </si>
   <si>
     <t>2,1%</t>
@@ -592,49 +586,49 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>5,35%</t>
+    <t>5,23%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>Porcentaje de pastillas para dormir recetados en 2015 (Tasa respuesta: 4,87%)</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>Porcentaje de pastillas para dormir recetados en 2016 (Tasa respuesta: 4,87%)</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>80,11%</t>
+    <t>80,01%</t>
   </si>
   <si>
     <t>97,0%</t>
   </si>
   <si>
-    <t>84,15%</t>
+    <t>84,86%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>19,89%</t>
+    <t>19,99%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>15,85%</t>
+    <t>15,14%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>67,0%</t>
+    <t>59,35%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -643,214 +637,214 @@
     <t>97,95%</t>
   </si>
   <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
     <t>86,89%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>88,43%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>92,45%</t>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>11,57%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>7,55%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC15280-A50D-42D1-99DB-A179B7C41EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EB8DDB-7C9B-4028-A564-DB19FFB069AC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2349,7 +2343,7 @@
         <v>74</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -2367,13 +2361,13 @@
         <v>950</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2382,13 +2376,13 @@
         <v>862</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -2397,13 +2391,13 @@
         <v>1812</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,7 +2453,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2471,10 +2465,10 @@
         <v>26971</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -2486,10 +2480,10 @@
         <v>45783</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -2501,13 +2495,13 @@
         <v>72754</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2516,13 @@
         <v>1868</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2537,13 +2531,13 @@
         <v>2187</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2552,13 +2546,13 @@
         <v>4055</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2620,13 @@
         <v>58801</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H28" s="7">
         <v>129</v>
@@ -2641,13 +2635,13 @@
         <v>133714</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M28" s="7">
         <v>190</v>
@@ -2656,13 +2650,13 @@
         <v>192515</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2671,13 @@
         <v>6123</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2692,13 +2686,13 @@
         <v>6958</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -2707,13 +2701,13 @@
         <v>13081</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,7 +2763,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2793,7 +2787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209CB1BA-ECFA-41B3-8358-20ED7BA77C4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFF17AC-B769-41F6-BBA8-3DC1DB56A89B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2810,7 +2804,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2915,39 +2909,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,39 +2954,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,39 +2999,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,7 +3051,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -3072,7 +3066,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3087,7 +3081,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -3111,7 +3105,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3126,7 +3120,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3141,7 +3135,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,10 +3203,10 @@
         <v>4049</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3227,7 +3221,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -3239,10 +3233,10 @@
         <v>12161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3260,13 +3254,13 @@
         <v>930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3281,7 +3275,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3290,13 +3284,13 @@
         <v>930</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,10 +3358,10 @@
         <v>11075</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -3379,10 +3373,10 @@
         <v>43801</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3394,10 +3388,10 @@
         <v>54876</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3415,13 +3409,13 @@
         <v>850</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3430,13 +3424,13 @@
         <v>1005</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3445,13 +3439,13 @@
         <v>1854</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,10 +3528,10 @@
         <v>35502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3549,10 +3543,10 @@
         <v>40898</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3585,13 +3579,13 @@
         <v>2689</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3600,13 +3594,13 @@
         <v>2689</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -3692,7 +3686,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -3707,7 +3701,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -3731,7 +3725,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3746,7 +3740,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3761,7 +3755,7 @@
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,7 +3841,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3862,7 +3856,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -3901,7 +3895,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3916,7 +3910,7 @@
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3966,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3987,7 +3981,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -3999,10 +3993,10 @@
         <v>62416</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -4014,10 +4008,10 @@
         <v>86114</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -4041,7 +4035,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4050,13 +4044,13 @@
         <v>963</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4065,13 +4059,13 @@
         <v>963</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,10 +4133,10 @@
         <v>66377</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -4154,13 +4148,13 @@
         <v>217221</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>257</v>
@@ -4169,13 +4163,13 @@
         <v>283597</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4184,13 @@
         <v>1779</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -4205,13 +4199,13 @@
         <v>4657</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -4220,13 +4214,13 @@
         <v>6437</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4276,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F528E8A1-D927-4ECA-A350-C85714D7CDD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76ED058-5514-460B-973B-AB194D25524D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4323,7 +4317,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4445,10 +4439,10 @@
         <v>24378</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4460,10 +4454,10 @@
         <v>30374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4496,13 +4490,13 @@
         <v>941</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4511,13 +4505,13 @@
         <v>941</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,10 +4579,10 @@
         <v>12479</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -4603,7 +4597,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4615,10 +4609,10 @@
         <v>48526</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4636,13 +4630,13 @@
         <v>1017</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4657,7 +4651,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4666,13 +4660,13 @@
         <v>1016</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,7 +4737,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -4758,7 +4752,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4773,7 +4767,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -4797,7 +4791,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4812,7 +4806,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4827,7 +4821,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,7 +4892,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -4910,10 +4904,10 @@
         <v>36037</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4925,10 +4919,10 @@
         <v>44767</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4952,7 +4946,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4961,13 +4955,13 @@
         <v>942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4976,13 +4970,13 @@
         <v>942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,7 +5062,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -5083,7 +5077,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -5122,7 +5116,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5137,7 +5131,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,10 +5199,10 @@
         <v>8441</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -5220,13 +5214,13 @@
         <v>24953</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -5235,13 +5229,13 @@
         <v>33394</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5250,13 @@
         <v>1809</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -5271,13 +5265,13 @@
         <v>5347</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -5286,13 +5280,13 @@
         <v>7156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,10 +5354,10 @@
         <v>29070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -5375,10 +5369,10 @@
         <v>55343</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5390,10 +5384,10 @@
         <v>84413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5411,13 +5405,13 @@
         <v>1125</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5426,13 +5420,13 @@
         <v>1101</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5441,13 +5435,13 @@
         <v>2226</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,7 +5497,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5518,7 +5512,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -5530,10 +5524,10 @@
         <v>41838</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -5545,10 +5539,10 @@
         <v>50411</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5572,7 +5566,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5581,13 +5575,13 @@
         <v>2238</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5596,13 +5590,13 @@
         <v>2238</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5664,13 @@
         <v>83010</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>257</v>
+        <v>87</v>
       </c>
       <c r="H28" s="7">
         <v>227</v>
@@ -5685,13 +5679,13 @@
         <v>253306</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="M28" s="7">
         <v>306</v>
@@ -5700,13 +5694,13 @@
         <v>336315</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5715,13 @@
         <v>3950</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>264</v>
+        <v>93</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -5736,13 +5730,13 @@
         <v>10569</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -5751,13 +5745,13 @@
         <v>14520</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,7 +5807,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4B5633F-AF20-408B-8EDE-1355D0DBCA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6689C2F3-0A45-46BF-8813-9A2F7CCDF9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D750C411-B2E9-4986-9D9F-27299F93CF71}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7D145CD-9D31-4D53-A28E-2F794D5EBF64}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="271">
   <si>
     <t>Porcentaje de pastillas para dormir recetados en 2007 (Tasa respuesta: 3,12%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>41,96%</t>
@@ -91,7 +91,7 @@
     <t>77,57%</t>
   </si>
   <si>
-    <t>36,17%</t>
+    <t>38,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,7 +109,7 @@
     <t>22,43%</t>
   </si>
   <si>
-    <t>63,83%</t>
+    <t>61,3%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -121,13 +121,13 @@
     <t>96,88%</t>
   </si>
   <si>
-    <t>84,62%</t>
+    <t>84,13%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>86,7%</t>
+    <t>87,68%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -136,13 +136,13 @@
     <t>3,12%</t>
   </si>
   <si>
-    <t>15,38%</t>
+    <t>15,87%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>13,3%</t>
+    <t>12,32%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -178,13 +178,13 @@
     <t>90,49%</t>
   </si>
   <si>
-    <t>61,02%</t>
+    <t>54,65%</t>
   </si>
   <si>
     <t>87,47%</t>
   </si>
   <si>
-    <t>61,06%</t>
+    <t>64,28%</t>
   </si>
   <si>
     <t>20,37%</t>
@@ -196,13 +196,13 @@
     <t>9,51%</t>
   </si>
   <si>
-    <t>38,98%</t>
+    <t>45,35%</t>
   </si>
   <si>
     <t>12,53%</t>
   </si>
   <si>
-    <t>38,94%</t>
+    <t>35,72%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -214,13 +214,13 @@
     <t>83,24%</t>
   </si>
   <si>
-    <t>48,3%</t>
+    <t>55,67%</t>
   </si>
   <si>
     <t>87,91%</t>
   </si>
   <si>
-    <t>68,14%</t>
+    <t>63,05%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -229,13 +229,13 @@
     <t>16,76%</t>
   </si>
   <si>
-    <t>51,7%</t>
+    <t>44,33%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>31,86%</t>
+    <t>36,95%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -253,130 +253,136 @@
     <t>92,35%</t>
   </si>
   <si>
-    <t>67,83%</t>
+    <t>64,54%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>85,17%</t>
+    <t>82,88%</t>
   </si>
   <si>
     <t>95,07%</t>
   </si>
   <si>
+    <t>84,49%</t>
+  </si>
+  <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>32,17%</t>
+    <t>35,46%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>14,83%</t>
+    <t>17,12%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
+    <t>15,51%</t>
+  </si>
+  <si>
     <t>Sevilla</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>77,63%</t>
+    <t>78,96%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>83,45%</t>
+    <t>85,85%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>22,37%</t>
+    <t>21,04%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>16,55%</t>
+    <t>14,15%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>95,05%</t>
   </si>
   <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -409,85 +415,85 @@
     <t>81,32%</t>
   </si>
   <si>
-    <t>21,64%</t>
+    <t>21,3%</t>
   </si>
   <si>
     <t>92,9%</t>
   </si>
   <si>
-    <t>70,64%</t>
+    <t>69,18%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>78,36%</t>
+    <t>78,7%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>29,36%</t>
+    <t>30,82%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>64,29%</t>
+    <t>61,4%</t>
   </si>
   <si>
     <t>97,76%</t>
   </si>
   <si>
-    <t>85,42%</t>
+    <t>90,83%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>88,69%</t>
+    <t>88,68%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>35,71%</t>
+    <t>38,6%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>14,58%</t>
+    <t>9,17%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>11,31%</t>
+    <t>11,32%</t>
   </si>
   <si>
     <t>92,96%</t>
   </si>
   <si>
-    <t>78,0%</t>
+    <t>76,11%</t>
   </si>
   <si>
     <t>93,83%</t>
   </si>
   <si>
-    <t>78,75%</t>
+    <t>78,04%</t>
   </si>
   <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>22,0%</t>
+    <t>23,89%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>21,25%</t>
+    <t>21,96%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -526,13 +532,13 @@
     <t>98,48%</t>
   </si>
   <si>
-    <t>91,81%</t>
+    <t>91,23%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>94,45%</t>
+    <t>95,37%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -541,43 +547,40 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>8,19%</t>
+    <t>8,77%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>5,55%</t>
+    <t>4,63%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>90,81%</t>
+    <t>91,44%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>9,19%</t>
+    <t>8,56%</t>
   </si>
   <si>
     <t>2,1%</t>
@@ -586,16 +589,13 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>Porcentaje de pastillas para dormir recetados en 2016 (Tasa respuesta: 4,87%)</t>
@@ -604,31 +604,31 @@
     <t>96,28%</t>
   </si>
   <si>
-    <t>80,01%</t>
+    <t>79,42%</t>
   </si>
   <si>
     <t>97,0%</t>
   </si>
   <si>
-    <t>84,86%</t>
+    <t>84,25%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>19,99%</t>
+    <t>20,58%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>15,14%</t>
+    <t>15,75%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>59,35%</t>
+    <t>61,72%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -637,13 +637,13 @@
     <t>97,95%</t>
   </si>
   <si>
-    <t>89,66%</t>
+    <t>90,61%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>40,65%</t>
+    <t>38,28%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -652,7 +652,7 @@
     <t>2,05%</t>
   </si>
   <si>
-    <t>10,34%</t>
+    <t>9,39%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -670,25 +670,25 @@
     <t>97,45%</t>
   </si>
   <si>
-    <t>86,9%</t>
+    <t>87,0%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>89,87%</t>
+    <t>89,73%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>13,1%</t>
+    <t>13,0%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>10,13%</t>
+    <t>10,27%</t>
   </si>
   <si>
     <t>90,51%</t>
@@ -706,145 +706,151 @@
     <t>82,35%</t>
   </si>
   <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>96,27%</t>
   </si>
   <si>
-    <t>77,55%</t>
+    <t>81,6%</t>
   </si>
   <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>92,01%</t>
+    <t>88,32%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>92,15%</t>
+    <t>90,97%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>22,45%</t>
+    <t>18,4%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>7,99%</t>
+    <t>11,68%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>7,85%</t>
+    <t>9,03%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>82,08%</t>
+    <t>82,27%</t>
   </si>
   <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>86,89%</t>
+    <t>84,74%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>17,92%</t>
+    <t>17,73%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>13,11%</t>
+    <t>15,26%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>88,43%</t>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>11,57%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EB8DDB-7C9B-4028-A564-DB19FFB069AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B93ABE6-790B-4522-83FA-816AFA91BAA2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2343,7 +2349,7 @@
         <v>74</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -2361,13 +2367,13 @@
         <v>950</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2376,13 +2382,13 @@
         <v>862</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -2391,13 +2397,13 @@
         <v>1812</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,7 +2459,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2465,10 +2471,10 @@
         <v>26971</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -2480,10 +2486,10 @@
         <v>45783</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -2495,13 +2501,13 @@
         <v>72754</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2522,13 @@
         <v>1868</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2531,13 +2537,13 @@
         <v>2187</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2546,13 +2552,13 @@
         <v>4055</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2626,13 @@
         <v>58801</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H28" s="7">
         <v>129</v>
@@ -2635,13 +2641,13 @@
         <v>133714</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M28" s="7">
         <v>190</v>
@@ -2650,13 +2656,13 @@
         <v>192515</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2677,13 @@
         <v>6123</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2686,13 +2692,13 @@
         <v>6958</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -2701,13 +2707,13 @@
         <v>13081</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,7 +2769,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2787,7 +2793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFF17AC-B769-41F6-BBA8-3DC1DB56A89B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93696B48-1743-425F-882C-A84E1C895769}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2804,7 +2810,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2909,39 +2915,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,39 +2960,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,39 +3005,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,7 +3057,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -3066,7 +3072,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3081,7 +3087,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -3105,7 +3111,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3120,7 +3126,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3135,7 +3141,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,10 +3209,10 @@
         <v>4049</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3221,7 +3227,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -3233,10 +3239,10 @@
         <v>12161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3254,13 +3260,13 @@
         <v>930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3275,7 +3281,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3284,13 +3290,13 @@
         <v>930</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,10 +3364,10 @@
         <v>11075</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -3373,10 +3379,10 @@
         <v>43801</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3388,10 +3394,10 @@
         <v>54876</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3409,13 +3415,13 @@
         <v>850</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3424,13 +3430,13 @@
         <v>1005</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3439,13 +3445,13 @@
         <v>1854</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,10 +3534,10 @@
         <v>35502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3543,10 +3549,10 @@
         <v>40898</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3579,13 +3585,13 @@
         <v>2689</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3594,13 +3600,13 @@
         <v>2689</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,7 +3677,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -3686,7 +3692,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -3701,7 +3707,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -3725,7 +3731,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3740,7 +3746,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3755,7 +3761,7 @@
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,7 +3847,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3856,7 +3862,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -3895,7 +3901,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3910,7 +3916,7 @@
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3972,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3981,7 +3987,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -3993,10 +3999,10 @@
         <v>62416</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -4008,10 +4014,10 @@
         <v>86114</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -4035,7 +4041,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4044,13 +4050,13 @@
         <v>963</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4059,13 +4065,13 @@
         <v>963</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,10 +4139,10 @@
         <v>66377</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -4148,13 +4154,13 @@
         <v>217221</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>257</v>
@@ -4163,13 +4169,13 @@
         <v>283597</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4190,13 @@
         <v>1779</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -4199,13 +4205,13 @@
         <v>4657</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -4276,7 +4282,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4300,7 +4306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76ED058-5514-460B-973B-AB194D25524D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3174BF3-2290-40C6-B79F-B8BB2CA0D816}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4737,7 +4743,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -4791,7 +4797,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4892,7 +4898,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -4946,7 +4952,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5497,7 +5503,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5512,7 +5518,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -5566,7 +5572,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5670,7 +5676,7 @@
         <v>254</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="H28" s="7">
         <v>227</v>
@@ -5679,13 +5685,13 @@
         <v>253306</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M28" s="7">
         <v>306</v>
@@ -5694,13 +5700,13 @@
         <v>336315</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5721,13 @@
         <v>3950</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>93</v>
+        <v>263</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -5730,13 +5736,13 @@
         <v>10569</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -5745,13 +5751,13 @@
         <v>14520</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,7 +5813,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6689C2F3-0A45-46BF-8813-9A2F7CCDF9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9D309BF-BDF7-47C3-8D3D-54B995A15015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7D145CD-9D31-4D53-A28E-2F794D5EBF64}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{85910636-CD22-4362-B64B-2BB278E62A9C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="274">
   <si>
     <t>Porcentaje de pastillas para dormir recetados en 2007 (Tasa respuesta: 3,12%)</t>
   </si>
@@ -391,7 +391,34 @@
     <t>Porcentaje de pastillas para dormir recetados en 2012 (Tasa respuesta: 4,04%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -436,40 +463,28 @@
     <t>30,82%</t>
   </si>
   <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>92,96%</t>
@@ -655,13 +670,7 @@
     <t>9,39%</t>
   </si>
   <si>
-    <t>88,17%</t>
-  </si>
-  <si>
     <t>89,47%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -1262,7 +1271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B93ABE6-790B-4522-83FA-816AFA91BAA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60FD70D-325D-44A3-B2D1-E94825654E15}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2793,7 +2802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93696B48-1743-425F-882C-A84E1C895769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166304EF-CC40-4723-8A15-426C759349B9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2911,43 +2920,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3891</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15937</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N4" s="7">
+        <v>19828</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,43 +2971,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>849</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>850</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,43 +3022,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4740</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15937</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="N6" s="7">
+        <v>20678</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,7 +3084,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -3072,7 +3099,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3087,7 +3114,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -3111,7 +3138,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3126,7 +3153,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3141,7 +3168,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,10 +3236,10 @@
         <v>4049</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3227,7 +3254,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -3239,10 +3266,10 @@
         <v>12161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3260,13 +3287,13 @@
         <v>930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3281,7 +3308,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3290,13 +3317,13 @@
         <v>930</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,46 +3385,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>11075</v>
+        <v>7184</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>43801</v>
+        <v>27863</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="N13" s="7">
-        <v>54876</v>
+        <v>35048</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3409,19 +3436,19 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3430,28 +3457,28 @@
         <v>1005</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>1854</v>
+        <v>1005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,10 +3487,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7">
-        <v>11925</v>
+        <v>7184</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -3475,10 +3502,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I15" s="7">
-        <v>44806</v>
+        <v>28868</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -3490,10 +3517,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="N15" s="7">
-        <v>56730</v>
+        <v>36053</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -3534,10 +3561,10 @@
         <v>35502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3549,10 +3576,10 @@
         <v>40898</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3585,13 +3612,13 @@
         <v>2689</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3600,13 +3627,13 @@
         <v>2689</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,7 +3704,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -3692,7 +3719,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -3707,7 +3734,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -3731,7 +3758,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3746,7 +3773,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3761,7 +3788,7 @@
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,7 +3874,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3862,7 +3889,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -3901,7 +3928,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3916,7 +3943,7 @@
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -3999,10 +4026,10 @@
         <v>62416</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -4014,10 +4041,10 @@
         <v>86114</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -4041,7 +4068,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4050,13 +4077,13 @@
         <v>963</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4065,13 +4092,13 @@
         <v>963</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,10 +4166,10 @@
         <v>66377</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -4154,13 +4181,13 @@
         <v>217221</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>87</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>257</v>
@@ -4169,13 +4196,13 @@
         <v>283597</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4217,13 @@
         <v>1779</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -4205,10 +4232,10 @@
         <v>4657</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>94</v>
@@ -4220,13 +4247,13 @@
         <v>6437</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3174BF3-2290-40C6-B79F-B8BB2CA0D816}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E519631-FF77-446C-B837-A4703CEC417B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4323,7 +4350,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4445,10 +4472,10 @@
         <v>24378</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4460,10 +4487,10 @@
         <v>30374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4496,13 +4523,13 @@
         <v>941</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4511,13 +4538,13 @@
         <v>941</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,10 +4612,10 @@
         <v>12479</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -4603,7 +4630,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4615,10 +4642,10 @@
         <v>48526</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4636,13 +4663,13 @@
         <v>1017</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4657,7 +4684,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4666,13 +4693,13 @@
         <v>1016</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,7 +4770,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -4758,7 +4785,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4773,7 +4800,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -4797,7 +4824,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4812,7 +4839,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4827,7 +4854,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,7 +4925,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -4910,10 +4937,10 @@
         <v>36037</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4925,10 +4952,10 @@
         <v>44767</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4952,7 +4979,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4961,13 +4988,13 @@
         <v>942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4976,13 +5003,13 @@
         <v>942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,7 +5095,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -5083,7 +5110,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -5122,7 +5149,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5137,7 +5164,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,10 +5232,10 @@
         <v>8441</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -5220,13 +5247,13 @@
         <v>24953</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -5235,13 +5262,13 @@
         <v>33394</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5283,13 @@
         <v>1809</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -5271,13 +5298,13 @@
         <v>5347</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -5286,13 +5313,13 @@
         <v>7156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,10 +5387,10 @@
         <v>29070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -5375,10 +5402,10 @@
         <v>55343</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5390,10 +5417,10 @@
         <v>84413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5411,13 +5438,13 @@
         <v>1125</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5426,13 +5453,13 @@
         <v>1101</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5441,13 +5468,13 @@
         <v>2226</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,7 +5545,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -5530,10 +5557,10 @@
         <v>41838</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -5545,10 +5572,10 @@
         <v>50411</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5572,7 +5599,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5581,13 +5608,13 @@
         <v>2238</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5596,13 +5623,13 @@
         <v>2238</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5697,13 @@
         <v>83010</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H28" s="7">
         <v>227</v>
@@ -5685,13 +5712,13 @@
         <v>253306</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M28" s="7">
         <v>306</v>
@@ -5700,13 +5727,13 @@
         <v>336315</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5748,13 @@
         <v>3950</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -5736,13 +5763,13 @@
         <v>10569</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -5751,13 +5778,13 @@
         <v>14520</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
